--- a/data/munjib/EPQA2.xlsx
+++ b/data/munjib/EPQA2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songhune/Library/Mobile Documents/com~apple~CloudDocs/Workspace/korean_eda/data/munjib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274F101-B1B7-F246-9F60-1A399385F275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B1A077-F66B-5245-82DE-4D278B76CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{6A167547-548F-9D44-9B01-D2805CFA1FA4}"/>
+    <workbookView xWindow="57720" yWindow="0" windowWidth="19080" windowHeight="21600" activeTab="6" xr2:uid="{6A167547-548F-9D44-9B01-D2805CFA1FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="5" r:id="rId1"/>
@@ -971,7 +971,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8762" uniqueCount="3624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8762" uniqueCount="3625">
   <si>
     <t>id</t>
   </si>
@@ -15130,32 +15130,6 @@
   </si>
   <si>
     <r>
-      <t>論曰。接於物而有愛惡恩怨之分。吾之所以處之者。最上以直。其次以德。最下以怨是已。以怨者固不足道。德猶厚也。而是猶不免避怨之嫌有以動之也。纔有動。便不是天理。以德亦非也。然則人之有怨於我而幸以相遇者。情有所可哀。則其將匿怨而報之以德乎。臣於寇準之逆丁謂a059_419c也。有拂焉。準爲謂所擠。責授雷州。則準之於謂。固嘗怨矣。寇老未召。眼釘已拔。謂且繼斥。道出於雷。則天道好還。人生有逢。準之待謂當何如也。彼旣艱關嶺海。以窮相遇。則乘人之厄。固鄙夫之所不爲也。至於以德。則是亦匿之也。然則準之以蒸羊逆于境上。豈準之情也。要不過有意於避怨。而挾憾之嫌。有以先動乎心也。何者。謂之於準。非朝夕可釋之怨。而準之厄於謂者。非一雷州也。一㘅於拂鬚之責。再㘅於佞人之斥。相州道州之命。皆出於把握。則謂之禍準。盖無餘力。而直不推刃耳。古人之於怨也。有公事則釋焉。惠伯之於懿伯是已。惜其才則釋焉。桓公之於管仲是已。謂之於宋。有懿伯之寄而可補於分寸耶。謂之爲人。有管仲之才而冀效於後功耶。李沆國之老成。而斥以a059_419d不用。張詠累世元臣。而上章請罪。奸邪誑惑。特一賊臣。而朝野之所共憤也。以言其惡。則有當戮之罪。以言其情。則特一時同朝之好耳。準之於謂。有難容之怨。而無可貰之義矣。如是而蒸羊專价。委曲迎勞。豈準之爲人。超於恩怨之外。而無一毫芥滯於胷中耶。準之志行。臣不敢遽議。而据諸史所評。則稟性剛徧。見斥天鑑。欲人畏威。發諸元老幸兵之僭。先挫壯圖。澶淵之役。自矜其功。則其志之淺深可</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>覸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。而詔格一違。遂煩嚴旒。請相見拒。深憾碩輔。豈準之爲人。能憾於王旦之賢。而輕釋於丁謂之奸。謀小惠而忽大怨哉。且使謂得餽則生。不得則死。是且餽之而救其死可也。不然則遣人念之。勤也。專羊贈之。厚也。境上逆之。遠也。是何不必施之恩而加之於不須施之地耶。孔子曰。以a059_420a直報怨。易曰。遠小人。不惡而嚴。使準有得於斯。則來則謝之。過則置之。有求則遺。無則已。其來其去。莫加之意可也。夫如是則待怨之道。無豫於吾心。而遠奸之意。斬絶於其間。彼之挾奸負怨。目不干於我矣。過接之際。無痕隙之可尋。顧不韙歟。是何區區自動於形迹之嫌。而先示冗恩。啓彼請見之心乎。旣請而拒。增彼怨恨。則豈若自處嚴正而初不干之爲愈也。嗚呼。讐怨之際。人所難處。自非洪度。鮮有不辟。準以剛徧之性。加不學之譏。義理公私之卞。蔽障未去。故始之薦謂。旣失於謬見。終之逆謂。再誤於矯情。尙奚足道哉。然見世之人。細憾睢盱。下石怏意。鴻豫傾融。直一權字。江海亡命。實原不舞。則準亦賢矣乎哉。語曰。太上忘怨。其次不報怨。若準者。雖不至於忘怨。亦可謂不報怨a059_420b矣。臣謹論。</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>順天時而御極。成賦旣屬於中邦。因地理而制宜。轉漕盍先於穿渭。肆效尺寸之短。冀見輻輳之休。欽念軫民天。憂勤國計。下犍竹於瓠子。海陵之紅粟迷津。簇鴉檣於江中。甄閩之靑雀接軸。顧惟關東之秸服。尙憂調租之極艱。疲我馬</t>
     </r>
     <r>
@@ -27012,64 +26986,6 @@
   </si>
   <si>
     <t>漢鄭當時;請穿渭渠</t>
-  </si>
-  <si>
-    <t>問;聖賢千言萬語;無非爲修己
- 治人而發也. 就四書 中;撮其大者
- 言之;如中庸 之尊德性道問學,
- 大學 之格致誠正;論語 之孝悌;孟
- 子 之仁義修己之道也. 中庸 之九經,
- 大學 之絜矩;論語 之答爲邦;孟子
- 之陳王道治人之方也. 所論者一;而
- 有詳畧先後之不同;其故何歟. 如欲
- 體而行之;則何者最切而易效歟. 玆
- 數者之外;抑有他喫緊地歟.
- 幼學 李涵 年三十五 本載寧 居寧海
- 父 彰信校尉 行忠武衛副司直 殷輔
- 祖 通政大夫 〔行蔚珍縣令 璦 〕
- 曾祖 通政大夫 守黃〔海道觀察使 兼兵馬水軍節度使 〕孟賢
- 外祖 忠義衛 李舜[應 本全州 〕
- 問云云.
- 對;論修己之道;則雖有先□…□用功之次第焉,
- 語治人之方;則雖有詳□…□推化之節目
- 焉. 有見乎此;則何難辨明問之萬一乎;請試陳之存心
- 而極乎;道體之大致知而盡乎. 道體之細者;明道之敎也. 窮
- 事物之理;而極吾心之知□…□此心之存否者,
- 入德之書也. 入而盡□…□之禮者;非論語
- 孝悌之道乎. 全其心之德;而盡心事之宜者;非孟子 仁義之說乎,
- 此則聖賢修己之道也. □…□本之於修身之要;而以及於懷
- 諸侯;則爲天下國家之□…□目乎. 因吾心之所
- 同;而推以及物使□…□則治國平天下之要,
- 亦豈外於絜矩之道乎. □先王之制;而立萬世之道者;夫
- 子 之答爲邦也. 制生民□…□端者;孟子 之陳
- 王道也. 此則聖賢治□…□立言;雖有先後詳
- 畧之不同;而要其旨;則□修己之道;治人之方;皆有次第,
- 節目之詳焉;則豈可以□…□聖賢之言乎. 由玆以觀,
- 尊德性道問學;而施九經之□…□推絜矩之義者;庸
- 學之修己治人也. 入孝出□而達;爲邦之道;居仁由義而行,
- 王者之道者;語 孟 之修□…□也. 非有尊德性道問學之功;則何
- 以施九經之效乎. 非有格□…□何以推絜矩之道乎.
- 不先乎孝悌;則無以知爲□之道矣. 不本於仁義;則無以知
- 王道之大矣. 大抵君子□…□切於修己治人;而其所以
- 用功地頭;立脚根基;則□…□而易效者乎. 苟能從事
- 於格物致知之功;而用力□誠意正心之要;則可造乎徹上
- 徹下之功;而能盡乎修己□…□道矣. 由此而定規模;由此而立根
- 本;觀孟子 之發越;而極□…□;則其於修己治人之道;宜
- 無不書;而其詳畧先後之□;又何疑乎. __執事疑難之餘引,
- 而不發以牗諸生曰;玆數□…□抑有他喫緊地歟. 愚也誦
- 子;朱子 之說曰;敬者聖□成始;而成終者也;誠者成己而成
- 物者也;然則誠敬之外;又□…□喫緊地乎 .願以是求正於__執事
- 先生也. 謹封.
- 春秋 義. 秋大水□氷.
- 天災必謹;陰陽當理;此□□變理之意也. 蓋書曰;浲水
- 警予;詩云;鑿氷冲冲;吁□帝明王;不可不謹災;而變理也
- 云云. 人事感於下;則天變□其可不修在己之德;而弭天
- 災;而調陰陽乎 且夫桓□…□君也;其致陰冷宜矣. 至
- 若宣公 縱弛之政也;陰□…□不亦宜乎. 由是天譴疊見,
- 而有大水之災;陰陽不調□…□祭之氷;可不懼哉. 論之天
- 人;一理顯徵;無問人君□…□行政;則何以弭災譴;而調陰
- 陽乎. 然則爲人君者;可□而行政也哉. 吁聖人修春秋
- 生員三等第四十四人望三之四十四</t>
   </si>
   <si>
     <t>臣對. 臣聞書曰;愼終于始;豈不以有終者;必自於謹始;而謹始者;能致其
@@ -27667,6 +27583,161 @@
   </si>
   <si>
     <t>http://db.itkc.or.kr/inLink?DCI=ITKC_MO_0863A_0080_050_0030_2010_B031_XML, http://db.itkc.or.kr/inLink?DCI=ITKC_MO_0863A_0080_050_0020_2010_B031_XML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1536년_별시_문과_■시_답안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">問;聖賢千言萬語;無非爲修己
+ 治人而發也. 就四書 中;撮其大者
+ 言之;如中庸 之尊德性道問學,
+ 大學 之格致誠正;論語 之孝悌;孟
+ 子 之仁義修己之道也. 中庸 之九經,
+ 大學 之絜矩;論語 之答爲邦;孟子
+ 之陳王道治人之方也. 所論者一;而
+ 有詳畧先後之不同;其故何歟. 如欲
+ 體而行之;則何者最切而易效歟. 玆
+ 數者之外;抑有他喫緊地歟.
+ 幼學 李涵 年三十五 本載寧 居寧海
+ 父 彰信校尉 行忠武衛副司直 殷輔
+ 祖 通政大夫 〔行蔚珍縣令 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>璦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 〕
+ 曾祖 通政大夫 守黃〔海道觀察使 兼兵馬水軍節度使 〕孟賢
+ 外祖 忠義衛 李舜[應 本全州 〕
+ 問云云.
+ 對;論修己之道;則雖有先□…□用功之次第焉,
+ 語治人之方;則雖有詳□…□推化之節目
+ 焉. 有見乎此;則何難辨明問之萬一乎;請試陳之存心
+ 而極乎;道體之大致知而盡乎. 道體之細者;明道之敎也. 窮
+ 事物之理;而極吾心之知□…□此心之存否者,
+ 入德之書也. 入而盡□…□之禮者;非論語
+ 孝悌之道乎. 全其心之德;而盡心事之宜者;非孟子 仁義之說乎,
+ 此則聖賢修己之道也. □…□本之於修身之要;而以及於懷
+ 諸侯;則爲天下國家之□…□目乎. 因吾心之所
+ 同;而推以及物使□…□則治國平天下之要,
+ 亦豈外於絜矩之道乎. □先王之制;而立萬世之道者;夫
+ 子 之答爲邦也. 制生民□…□端者;孟子 之陳
+ 王道也. 此則聖賢治□…□立言;雖有先後詳
+ 畧之不同;而要其旨;則□修己之道;治人之方;皆有次第,
+ 節目之詳焉;則豈可以□…□聖賢之言乎. 由玆以觀,
+ 尊德性道問學;而施九經之□…□推絜矩之義者;庸
+ 學之修己治人也. 入孝出□而達;爲邦之道;居仁由義而行,
+ 王者之道者;語 孟 之修□…□也. 非有尊德性道問學之功;則何
+ 以施九經之效乎. 非有格□…□何以推絜矩之道乎.
+ 不先乎孝悌;則無以知爲□之道矣. 不本於仁義;則無以知
+ 王道之大矣. 大抵君子□…□切於修己治人;而其所以
+ 用功地頭;立脚根基;則□…□而易效者乎. 苟能從事
+ 於格物致知之功;而用力□誠意正心之要;則可造乎徹上
+ 徹下之功;而能盡乎修己□…□道矣. 由此而定規模;由此而立根
+ 本;觀孟子 之發越;而極□…□;則其於修己治人之道;宜
+ 無不書;而其詳畧先後之□;又何疑乎. __執事疑難之餘引,
+ 而不發以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>牗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>諸生曰;玆數□…□抑有他喫緊地歟. 愚也誦
+ 子;朱子 之說曰;敬者聖□成始;而成終者也;誠者成己而成
+ 物者也;然則誠敬之外;又□…□喫緊地乎 .願以是求正於__執事
+ 先生也. 謹封.
+ 春秋 義. 秋大水□氷.
+ 天災必謹;陰陽當理;此□□變理之意也. 蓋書曰;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>浲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水
+ 警予;詩云;鑿氷冲冲;吁□帝明王;不可不謹災;而變理也
+ 云云. 人事感於下;則天變□其可不修在己之德;而弭天
+ 災;而調陰陽乎 且夫桓□…□君也;其致陰冷宜矣. 至
+ 若宣公 縱弛之政也;陰□…□不亦宜乎. 由是天譴疊見,
+ 而有大水之災;陰陽不調□…□祭之氷;可不懼哉. 論之天
+ 人;一理顯徵;無問人君□…□行政;則何以弭災譴;而調陰
+ 陽乎. 然則爲人君者;可□而行政也哉. 吁聖人修春秋
+ 生員三等第四十四人望三之四十四</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>論曰。接於物而有愛惡恩怨之分。吾之所以處之者。最上以直。其次以德。最下以怨是已。以怨者固不足道。德猶厚也。而是猶不免避怨之嫌有以動之也。纔有動。便不是天理。以德亦非也。然則人之有怨於我而幸以相遇者。情有所可哀。則其將匿怨而報之以德乎。臣於寇準之逆丁謂a059_419c也。有拂焉。準爲謂所擠。責授雷州。則準之於謂。固嘗怨矣。寇老未召。眼釘已拔。謂且繼斥。道出於雷。則天道好還。人生有逢。準之待謂當何如也。彼旣艱關嶺海。以窮相遇。則乘人之厄。固鄙夫之所不爲也。至於以德。則是亦匿之也。然則準之以蒸羊逆于境上。豈準之情也。要不過有意於避怨。而挾憾之嫌。有以先動乎心也。何者。謂之於準。非朝夕可釋之怨。而準之厄於謂者。非一雷州也。一㘅於拂鬚之責。再㘅於佞人之斥。相州道州之命。皆出於把握。則謂之禍準。盖無餘力。而直不推刃耳。古人之於怨也。有公事則釋焉。惠伯之於懿伯是已。惜其才則釋焉。桓公之於管仲是已。謂之於宋。有懿伯之寄而可補於分寸耶。謂之爲人。有管仲之才而冀效於後功耶。李沆國之老成。而斥以a059_419d不用。張詠累世元臣。而上章請罪。奸邪誑惑。特一賊臣。而朝野之所共憤也。以言其惡。則有當戮之罪。以言其情。則特一時同朝之好耳。準之於謂。有難容之怨。而無可貰之義矣。如是而蒸羊專价。委曲迎勞。豈準之爲人。超於恩怨之外。而無一毫芥滯於胷中耶。準之志行。臣不敢遽議。而据諸史所評。則稟性剛徧。見斥天鑑。欲人畏威。發諸元老幸兵之僭。先挫壯圖。澶淵之役。自矜其功。則其志之淺深可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>覸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。而詔格一違。遂煩嚴旒。請相見拒。深憾碩輔。豈準之爲人。能憾於王旦之賢。而輕釋於丁謂之奸。謀小惠而忽大怨哉。且使謂得餽則生。不得則死。是且餽之而救其死可也。不然則遣人念之。勤也。專羊贈之。厚也。境上逆之。遠也。是何不必施之恩而加之於不須施之地耶。孔子曰。以a059_420a直報怨。易曰。遠小人。不惡而嚴。使準有得於斯。則來則謝之。過則置之。有求則遺。無則已。其來其去。莫加之意可也。夫如是則待怨之道。無豫於吾心。而遠奸之意。斬絶於其間。彼之挾奸負怨。目不干於我矣。過接之際。無痕隙之可尋。顧不韙歟。是何區區自動於形迹之嫌。而先示冗恩。啓彼請見之心乎。旣請而拒。增彼怨恨。則豈若自處嚴正而初不干之爲愈也。嗚呼。讐怨之際。人所難處。自非洪度。鮮有不辟。準以剛徧之性。加不學之譏。義理公私之卞。蔽障未去。故始之薦謂。旣失於謬見。終之逆謂。再誤於矯情。尙奚足道哉。然見世之人。細憾睢盱。下石怏意。鴻豫傾融。直一權字。江海亡命。實原不舞。則準亦賢矣乎哉。語曰。太上忘怨。其次不報怨。若準者。雖不至於忘怨。亦可謂不報怨a059_420b矣。臣謹論。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -27789,7 +27860,27 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -28185,8 +28276,8 @@
   </sheetPr>
   <dimension ref="A1:L1110"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -28209,7 +28300,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="C1" t="s">
         <v>3211</v>
@@ -28665,7 +28756,7 @@
         <v>3150</v>
       </c>
       <c r="F16" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="H16">
         <v>1488</v>
@@ -28697,7 +28788,7 @@
         <v>3130</v>
       </c>
       <c r="E17" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="F17" t="s">
         <v>3129</v>
@@ -28805,10 +28896,10 @@
         <v>3099</v>
       </c>
       <c r="F20" t="s">
+        <v>3408</v>
+      </c>
+      <c r="G20" t="s">
         <v>3409</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3410</v>
       </c>
       <c r="H20">
         <v>1499</v>
@@ -29254,7 +29345,7 @@
         <v>2568</v>
       </c>
       <c r="F33" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="G33" t="s">
         <v>2567</v>
@@ -29330,7 +29421,7 @@
         <v>2989</v>
       </c>
       <c r="F35" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="H35">
         <v>1536</v>
@@ -29365,7 +29456,7 @@
         <v>3057</v>
       </c>
       <c r="F36" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="H36">
         <v>1536</v>
@@ -29455,7 +29546,7 @@
         <v>2492</v>
       </c>
       <c r="F39" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="H39">
         <v>1544</v>
@@ -30052,7 +30143,7 @@
         <v>2564</v>
       </c>
       <c r="E57" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="F57" t="s">
         <v>2563</v>
@@ -30425,7 +30516,7 @@
         <v>2982</v>
       </c>
       <c r="F68" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="H68">
         <v>1575</v>
@@ -30527,7 +30618,7 @@
         <v>2892</v>
       </c>
       <c r="F71" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="H71">
         <v>1582</v>
@@ -31897,7 +31988,7 @@
         <v>2758</v>
       </c>
       <c r="F111" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="H111">
         <v>1636</v>
@@ -32258,7 +32349,7 @@
         <v>2523</v>
       </c>
       <c r="F122" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="H122">
         <v>1654</v>
@@ -33184,7 +33275,7 @@
         <v>2370</v>
       </c>
       <c r="F150" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="H150">
         <v>1724</v>
@@ -33291,7 +33382,7 @@
     </row>
     <row r="154" spans="1:12" ht="15">
       <c r="A154" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="B154" t="s">
         <v>480</v>
@@ -33393,10 +33484,10 @@
         <v>2679</v>
       </c>
       <c r="E157" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F157" t="s">
         <v>3416</v>
-      </c>
-      <c r="F157" t="s">
-        <v>3417</v>
       </c>
       <c r="H157">
         <v>1750</v>
@@ -33931,7 +34022,7 @@
         <v>2623</v>
       </c>
       <c r="E174" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="H174">
         <v>1789</v>
@@ -34149,7 +34240,7 @@
         <v>2599</v>
       </c>
       <c r="L181" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="15">
@@ -35285,7 +35376,7 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -35316,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="C1" t="s">
         <v>1683</v>
@@ -35337,7 +35428,7 @@
         <v>1688</v>
       </c>
       <c r="I1" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -35414,7 +35505,7 @@
         <v>1702</v>
       </c>
       <c r="B5" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -35429,7 +35520,7 @@
         <v>1696</v>
       </c>
       <c r="H5" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="I5">
         <v>1605</v>
@@ -35440,7 +35531,7 @@
         <v>1704</v>
       </c>
       <c r="B6" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -35455,7 +35546,7 @@
         <v>1696</v>
       </c>
       <c r="H6" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="I6">
         <v>1605</v>
@@ -35478,7 +35569,7 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
@@ -35498,7 +35589,7 @@
         <v>1711</v>
       </c>
       <c r="H8" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="I8">
         <v>1649</v>
@@ -35524,7 +35615,7 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -35547,7 +35638,7 @@
         <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
@@ -35570,7 +35661,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
@@ -35639,7 +35730,7 @@
         <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -35662,7 +35753,7 @@
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
@@ -35685,7 +35776,7 @@
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
@@ -35708,7 +35799,7 @@
         <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
@@ -38932,7 +39023,7 @@
         <v>2043</v>
       </c>
       <c r="B201" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
@@ -38961,7 +39052,7 @@
         <v>2045</v>
       </c>
       <c r="B202" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -38984,7 +39075,7 @@
         <v>2046</v>
       </c>
       <c r="B203" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C203" t="s">
         <v>19</v>
@@ -39002,7 +39093,7 @@
         <v>1788</v>
       </c>
       <c r="H203" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="I203">
         <v>1794</v>
@@ -39013,7 +39104,7 @@
         <v>2047</v>
       </c>
       <c r="B204" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C204" t="s">
         <v>19</v>
@@ -39031,7 +39122,7 @@
         <v>1788</v>
       </c>
       <c r="H204" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="I204">
         <v>1795</v>
@@ -39042,7 +39133,7 @@
         <v>2048</v>
       </c>
       <c r="B205" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -39068,7 +39159,7 @@
         <v>2050</v>
       </c>
       <c r="B206" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="C206" t="s">
         <v>19</v>
@@ -39097,7 +39188,7 @@
         <v>2052</v>
       </c>
       <c r="B207" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
@@ -39112,7 +39203,7 @@
         <v>1788</v>
       </c>
       <c r="H207" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="I207">
         <v>1809</v>
@@ -39123,7 +39214,7 @@
         <v>2053</v>
       </c>
       <c r="B208" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
@@ -39138,7 +39229,7 @@
         <v>1788</v>
       </c>
       <c r="H208" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="I208">
         <v>1813</v>
@@ -39149,7 +39240,7 @@
         <v>2054</v>
       </c>
       <c r="B209" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C209" t="s">
         <v>19</v>
@@ -39167,7 +39258,7 @@
         <v>1697</v>
       </c>
       <c r="H209" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="I209">
         <v>1814</v>
@@ -39178,7 +39269,7 @@
         <v>2055</v>
       </c>
       <c r="B210" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C210" t="s">
         <v>19</v>
@@ -39207,7 +39298,7 @@
         <v>2057</v>
       </c>
       <c r="B211" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="C211" t="s">
         <v>19</v>
@@ -39236,7 +39327,7 @@
         <v>2059</v>
       </c>
       <c r="B212" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="C212" t="s">
         <v>19</v>
@@ -39265,7 +39356,7 @@
         <v>2061</v>
       </c>
       <c r="B213" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -39288,7 +39379,7 @@
         <v>2063</v>
       </c>
       <c r="B214" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C214" t="s">
         <v>19</v>
@@ -39306,7 +39397,7 @@
         <v>1788</v>
       </c>
       <c r="H214" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="I214">
         <v>1865</v>
@@ -39317,7 +39408,7 @@
         <v>2064</v>
       </c>
       <c r="B215" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C215" t="s">
         <v>19</v>
@@ -39346,7 +39437,7 @@
         <v>2066</v>
       </c>
       <c r="B216" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="C216" t="s">
         <v>19</v>
@@ -39375,7 +39466,7 @@
         <v>2067</v>
       </c>
       <c r="B217" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
@@ -39401,7 +39492,7 @@
         <v>2069</v>
       </c>
       <c r="B218" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -39424,7 +39515,7 @@
         <v>2070</v>
       </c>
       <c r="B219" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
@@ -39436,7 +39527,7 @@
         <v>1711</v>
       </c>
       <c r="H219" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="I219">
         <v>1894</v>
@@ -39447,7 +39538,7 @@
         <v>2071</v>
       </c>
       <c r="B220" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
       <c r="C220" t="s">
         <v>19</v>
@@ -39465,7 +39556,7 @@
         <v>1697</v>
       </c>
       <c r="H220" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="I220">
         <v>1835</v>
@@ -39488,7 +39579,7 @@
         <v>1696</v>
       </c>
       <c r="H221" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="I221">
         <v>1527</v>
@@ -39499,7 +39590,7 @@
         <v>2074</v>
       </c>
       <c r="B222" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="C222" t="s">
         <v>19</v>
@@ -39517,7 +39608,7 @@
         <v>1697</v>
       </c>
       <c r="H222" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="I222">
         <v>1531</v>
@@ -39540,7 +39631,7 @@
         <v>1711</v>
       </c>
       <c r="H223" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="I223">
         <v>1562</v>
@@ -39551,7 +39642,7 @@
         <v>2077</v>
       </c>
       <c r="B224" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="C224" t="s">
         <v>9</v>
@@ -39563,7 +39654,7 @@
         <v>1711</v>
       </c>
       <c r="H224" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="I224">
         <v>1564</v>
@@ -39574,7 +39665,7 @@
         <v>2078</v>
       </c>
       <c r="B225" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="C225" t="s">
         <v>19</v>
@@ -39592,7 +39683,7 @@
         <v>1697</v>
       </c>
       <c r="H225" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="I225">
         <v>1609</v>
@@ -39603,7 +39694,7 @@
         <v>2079</v>
       </c>
       <c r="B226" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C226" t="s">
         <v>19</v>
@@ -39618,7 +39709,7 @@
         <v>1697</v>
       </c>
       <c r="H226" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="I226">
         <v>1591</v>
@@ -39629,7 +39720,7 @@
         <v>2080</v>
       </c>
       <c r="B227" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C227" t="s">
         <v>19</v>
@@ -39658,7 +39749,7 @@
         <v>2081</v>
       </c>
       <c r="B228" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="C228" t="s">
         <v>19</v>
@@ -39709,7 +39800,7 @@
         <v>2085</v>
       </c>
       <c r="B231" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C231" t="s">
         <v>19</v>
@@ -39735,7 +39826,7 @@
         <v>2085</v>
       </c>
       <c r="B232" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C232" t="s">
         <v>19</v>
@@ -39789,7 +39880,7 @@
         <v>1711</v>
       </c>
       <c r="H235" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="I235">
         <v>1669</v>
@@ -39800,7 +39891,7 @@
         <v>2090</v>
       </c>
       <c r="B236" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C236" t="s">
         <v>19</v>
@@ -39829,7 +39920,7 @@
         <v>2091</v>
       </c>
       <c r="B237" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C237" t="s">
         <v>19</v>
@@ -39858,7 +39949,7 @@
         <v>2093</v>
       </c>
       <c r="B238" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
@@ -39956,7 +40047,7 @@
         <v>1795</v>
       </c>
       <c r="H242" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="I242">
         <v>1705</v>
@@ -39967,7 +40058,7 @@
         <v>2101</v>
       </c>
       <c r="B243" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
@@ -39982,7 +40073,7 @@
         <v>1697</v>
       </c>
       <c r="H243" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="I243">
         <v>1705</v>
@@ -39993,7 +40084,7 @@
         <v>2102</v>
       </c>
       <c r="B244" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="C244" t="s">
         <v>9</v>
@@ -40030,7 +40121,7 @@
         <v>2087</v>
       </c>
       <c r="B246" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15">
@@ -40038,7 +40129,7 @@
         <v>2087</v>
       </c>
       <c r="B247" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15">
@@ -40105,7 +40196,7 @@
         <v>2111</v>
       </c>
       <c r="B252" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="C252" t="s">
         <v>19</v>
@@ -40134,7 +40225,7 @@
         <v>2113</v>
       </c>
       <c r="B253" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
       <c r="C253" t="s">
         <v>19</v>
@@ -40252,7 +40343,7 @@
         <v>2121</v>
       </c>
       <c r="B261" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="C261" t="s">
         <v>19</v>
@@ -40335,7 +40426,7 @@
         <v>2125</v>
       </c>
       <c r="B268" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C268" t="s">
         <v>19</v>
@@ -40353,7 +40444,7 @@
         <v>1697</v>
       </c>
       <c r="H268" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="I268">
         <v>1831</v>
@@ -40364,7 +40455,7 @@
         <v>2126</v>
       </c>
       <c r="B269" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="C269" t="s">
         <v>19</v>
@@ -40393,7 +40484,7 @@
         <v>2127</v>
       </c>
       <c r="B270" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="C270" t="s">
         <v>19</v>
@@ -40422,7 +40513,7 @@
         <v>2128</v>
       </c>
       <c r="B271" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="C271" t="s">
         <v>19</v>
@@ -40448,7 +40539,7 @@
     </row>
     <row r="272" spans="1:9" ht="15">
       <c r="A272" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="B272" t="s">
         <v>1692</v>
@@ -40544,7 +40635,7 @@
         <v>2136</v>
       </c>
       <c r="B278" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C278" t="s">
         <v>19</v>
@@ -41511,8 +41602,8 @@
   </sheetPr>
   <dimension ref="A1:H287"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -41542,13 +41633,13 @@
         <v>637</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>638</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15">
@@ -41628,7 +41719,7 @@
         <v>657</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>658</v>
@@ -41652,7 +41743,7 @@
         <v>661</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>647</v>
@@ -41988,7 +42079,7 @@
         <v>665</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>3247</v>
@@ -42012,7 +42103,7 @@
         <v>665</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
@@ -42078,7 +42169,7 @@
         <v>658</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>3250</v>
@@ -42242,7 +42333,7 @@
         <v>658</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>756</v>
@@ -42645,7 +42736,7 @@
     </row>
     <row r="49" spans="1:8" ht="15">
       <c r="A49" s="1" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>838</v>
@@ -42750,7 +42841,7 @@
         <v>808</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>3271</v>
@@ -43049,7 +43140,7 @@
       </c>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="1:8" ht="15">
+    <row r="66" spans="1:8" ht="16">
       <c r="A66" s="1" t="s">
         <v>912</v>
       </c>
@@ -43063,7 +43154,7 @@
         <v>914</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>3285</v>
+        <v>3624</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>894</v>
@@ -43084,10 +43175,10 @@
         <v>641</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>918</v>
@@ -43129,7 +43220,7 @@
         <v>924</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>925</v>
@@ -43153,7 +43244,7 @@
         <v>929</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>3442</v>
+        <v>3623</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>930</v>
@@ -43201,7 +43292,7 @@
         <v>937</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>925</v>
@@ -43225,7 +43316,7 @@
         <v>941</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>942</v>
@@ -43249,7 +43340,7 @@
         <v>946</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>947</v>
@@ -43270,10 +43361,10 @@
         <v>641</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>3291</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>3292</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>951</v>
@@ -43294,10 +43385,10 @@
         <v>641</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>3291</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>3292</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>951</v>
@@ -43321,7 +43412,7 @@
         <v>956</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>957</v>
@@ -43345,7 +43436,7 @@
         <v>961</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>962</v>
@@ -43369,7 +43460,7 @@
         <v>966</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>967</v>
@@ -43393,7 +43484,7 @@
         <v>972</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>973</v>
@@ -43417,7 +43508,7 @@
         <v>977</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>978</v>
@@ -43441,7 +43532,7 @@
         <v>982</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>978</v>
@@ -43465,7 +43556,7 @@
         <v>987</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>988</v>
@@ -43513,7 +43604,7 @@
         <v>999</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>1000</v>
@@ -43537,7 +43628,7 @@
         <v>643</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>1004</v>
@@ -43561,7 +43652,7 @@
         <v>1007</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>930</v>
@@ -43603,7 +43694,7 @@
         <v>956</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>1014</v>
@@ -43627,7 +43718,7 @@
         <v>956</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>1017</v>
@@ -43694,7 +43785,7 @@
         <v>1029</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>1030</v>
@@ -43742,7 +43833,7 @@
         <v>1040</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>1041</v>
@@ -43763,10 +43854,10 @@
         <v>641</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>1045</v>
@@ -43790,7 +43881,7 @@
         <v>1049</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>1050</v>
@@ -43814,7 +43905,7 @@
         <v>1054</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>1055</v>
@@ -43838,7 +43929,7 @@
         <v>1058</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>1050</v>
@@ -43862,7 +43953,7 @@
         <v>1062</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>1063</v>
@@ -43886,7 +43977,7 @@
         <v>1067</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>1068</v>
@@ -43929,10 +44020,10 @@
         <v>658</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>1075</v>
@@ -43956,7 +44047,7 @@
         <v>1078</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>1079</v>
@@ -44084,7 +44175,7 @@
         <v>1089</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>1095</v>
@@ -44174,7 +44265,7 @@
         <v>1104</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>1105</v>
@@ -44198,7 +44289,7 @@
         <v>1108</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>1105</v>
@@ -44222,7 +44313,7 @@
         <v>1111</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>1112</v>
@@ -44266,7 +44357,7 @@
         <v>1117</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>1118</v>
@@ -44290,7 +44381,7 @@
         <v>1122</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>1123</v>
@@ -44314,7 +44405,7 @@
         <v>1127</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1128</v>
@@ -44338,7 +44429,7 @@
         <v>1132</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>1133</v>
@@ -44362,7 +44453,7 @@
         <v>1137</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>1138</v>
@@ -44386,7 +44477,7 @@
         <v>694</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>1142</v>
@@ -44410,7 +44501,7 @@
         <v>691</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>1146</v>
@@ -44434,7 +44525,7 @@
         <v>691</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>1146</v>
@@ -44482,7 +44573,7 @@
         <v>1155</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1156</v>
@@ -44506,7 +44597,7 @@
         <v>1158</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>1159</v>
@@ -44530,7 +44621,7 @@
         <v>1163</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>1164</v>
@@ -44554,7 +44645,7 @@
         <v>702</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>1167</v>
@@ -44578,7 +44669,7 @@
         <v>1171</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>1172</v>
@@ -44602,7 +44693,7 @@
         <v>1176</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>1177</v>
@@ -44626,7 +44717,7 @@
         <v>1181</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>1146</v>
@@ -44650,7 +44741,7 @@
         <v>1185</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>1186</v>
@@ -44696,7 +44787,7 @@
         <v>1193</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>1194</v>
@@ -44720,7 +44811,7 @@
         <v>1198</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>1199</v>
@@ -44744,7 +44835,7 @@
         <v>1190</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>1202</v>
@@ -44768,7 +44859,7 @@
         <v>1206</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>1207</v>
@@ -44792,7 +44883,7 @@
         <v>1211</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>1212</v>
@@ -44816,7 +44907,7 @@
         <v>1216</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>1217</v>
@@ -44840,7 +44931,7 @@
         <v>1221</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>1222</v>
@@ -44864,7 +44955,7 @@
         <v>1224</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>1225</v>
@@ -44977,10 +45068,10 @@
         <v>658</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>1244</v>
@@ -45001,10 +45092,10 @@
         <v>658</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1244</v>
@@ -45052,7 +45143,7 @@
         <v>1257</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>1254</v>
@@ -45076,7 +45167,7 @@
         <v>1260</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>1254</v>
@@ -45100,7 +45191,7 @@
         <v>1262</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>1254</v>
@@ -45124,7 +45215,7 @@
         <v>1265</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>1266</v>
@@ -45148,7 +45239,7 @@
         <v>1270</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>1271</v>
@@ -45172,7 +45263,7 @@
         <v>1270</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>1273</v>
@@ -45196,7 +45287,7 @@
         <v>1275</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>1276</v>
@@ -45220,7 +45311,7 @@
         <v>1270</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>1276</v>
@@ -45244,7 +45335,7 @@
         <v>1270</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>1279</v>
@@ -45268,7 +45359,7 @@
         <v>1270</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>1279</v>
@@ -45292,7 +45383,7 @@
         <v>1270</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>1281</v>
@@ -45336,7 +45427,7 @@
         <v>1289</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>1266</v>
@@ -45382,10 +45473,10 @@
         <v>1298</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>1299</v>
@@ -45406,10 +45497,10 @@
         <v>1298</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>1299</v>
@@ -45430,7 +45521,7 @@
         <v>1298</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>1300</v>
@@ -45454,7 +45545,7 @@
         <v>1304</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>1305</v>
@@ -45478,7 +45569,7 @@
         <v>1309</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>1310</v>
@@ -45502,7 +45593,7 @@
         <v>1314</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>1315</v>
@@ -45526,7 +45617,7 @@
         <v>1319</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>1266</v>
@@ -45550,7 +45641,7 @@
         <v>1323</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>1266</v>
@@ -45574,7 +45665,7 @@
         <v>1328</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1329</v>
@@ -45598,7 +45689,7 @@
         <v>1333</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>1334</v>
@@ -45700,7 +45791,7 @@
         <v>1349</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>1350</v>
@@ -45721,10 +45812,10 @@
         <v>1011</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>1354</v>
@@ -45748,7 +45839,7 @@
         <v>1358</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>1350</v>
@@ -45772,7 +45863,7 @@
         <v>1362</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>1363</v>
@@ -45796,7 +45887,7 @@
         <v>1367</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>1368</v>
@@ -45858,7 +45949,7 @@
         <v>1380</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>1381</v>
@@ -45882,7 +45973,7 @@
         <v>1385</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>1386</v>
@@ -45950,7 +46041,7 @@
         <v>665</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>1381</v>
@@ -46012,10 +46103,10 @@
         <v>1409</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>3360</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>3361</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -46034,7 +46125,7 @@
         <v>1412</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>1413</v>
@@ -46075,10 +46166,10 @@
         <v>665</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>1413</v>
@@ -46122,7 +46213,7 @@
         <v>1424</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>1425</v>
@@ -46146,7 +46237,7 @@
         <v>1429</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>1430</v>
@@ -46167,10 +46258,10 @@
         <v>641</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>1434</v>
@@ -46185,7 +46276,7 @@
         <v>1436</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>658</v>
@@ -46193,7 +46284,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>1437</v>
@@ -46207,7 +46298,7 @@
         <v>1439</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>665</v>
@@ -46217,7 +46308,7 @@
         <v>1440</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>1441</v>
@@ -46231,7 +46322,7 @@
         <v>1443</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>808</v>
@@ -46239,10 +46330,10 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="H203" s="1"/>
     </row>
@@ -46251,7 +46342,7 @@
         <v>1444</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>808</v>
@@ -46259,10 +46350,10 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="H204" s="1"/>
     </row>
@@ -46271,7 +46362,7 @@
         <v>1445</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>665</v>
@@ -46289,7 +46380,7 @@
         <v>1447</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>808</v>
@@ -46307,7 +46398,7 @@
         <v>1449</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>665</v>
@@ -46317,7 +46408,7 @@
         <v>1028</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>1450</v>
@@ -46341,7 +46432,7 @@
         <v>1454</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>1455</v>
@@ -46355,7 +46446,7 @@
         <v>1457</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>658</v>
@@ -46365,7 +46456,7 @@
         <v>1458</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>1459</v>
@@ -46377,7 +46468,7 @@
         <v>1460</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>658</v>
@@ -46387,7 +46478,7 @@
         <v>1461</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>1459</v>
@@ -46399,7 +46490,7 @@
         <v>1462</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>658</v>
@@ -46409,7 +46500,7 @@
         <v>1463</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>1459</v>
@@ -46421,7 +46512,7 @@
         <v>1464</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>1011</v>
@@ -46429,7 +46520,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>1465</v>
@@ -46441,7 +46532,7 @@
         <v>1466</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>1379</v>
@@ -46461,7 +46552,7 @@
         <v>1469</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>808</v>
@@ -46471,7 +46562,7 @@
         <v>1470</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>1471</v>
@@ -46483,7 +46574,7 @@
         <v>1472</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>1011</v>
@@ -46491,7 +46582,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>1473</v>
@@ -46503,7 +46594,7 @@
         <v>1474</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>1011</v>
@@ -46523,7 +46614,7 @@
         <v>1477</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>654</v>
@@ -46543,7 +46634,7 @@
         <v>1480</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1379</v>
@@ -46563,7 +46654,7 @@
         <v>1482</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>654</v>
@@ -46585,7 +46676,7 @@
         <v>1486</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>658</v>
@@ -46627,7 +46718,7 @@
         <v>1493</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>654</v>
@@ -46671,7 +46762,7 @@
         <v>1502</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>665</v>
@@ -46693,7 +46784,7 @@
         <v>1505</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>654</v>
@@ -46715,7 +46806,7 @@
         <v>1509</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>658</v>
@@ -46726,7 +46817,7 @@
         <v>1510</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>1511</v>
@@ -46737,7 +46828,7 @@
         <v>1512</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>808</v>
@@ -46747,7 +46838,7 @@
       </c>
       <c r="E227" s="1"/>
       <c r="F227" s="1" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>1514</v>
@@ -46759,7 +46850,7 @@
         <v>1515</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>808</v>
@@ -46767,7 +46858,7 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>1516</v>
@@ -46827,7 +46918,7 @@
         <v>1523</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>808</v>
@@ -46838,7 +46929,7 @@
         <v>1524</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>1525</v>
@@ -46849,7 +46940,7 @@
         <v>1523</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>1011</v>
@@ -46862,7 +46953,7 @@
         <v>1526</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>1525</v>
@@ -46881,7 +46972,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>1529</v>
@@ -46903,7 +46994,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>1529</v>
@@ -46930,7 +47021,7 @@
         <v>1534</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>1535</v>
@@ -46941,7 +47032,7 @@
         <v>1536</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>1537</v>
@@ -46962,26 +47053,26 @@
     </row>
     <row r="237" spans="1:8" ht="18">
       <c r="A237" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>3379</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>3526</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>3380</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>3381</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>3381</v>
-      </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="2" t="s">
         <v>3382</v>
-      </c>
-      <c r="H237" s="2" t="s">
-        <v>3383</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15">
@@ -46989,7 +47080,7 @@
         <v>1543</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>641</v>
@@ -47043,7 +47134,7 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>1551</v>
@@ -47158,7 +47249,7 @@
         <v>1566</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>1567</v>
@@ -47182,7 +47273,7 @@
         <v>1568</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>1567</v>
@@ -47247,7 +47338,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>1577</v>
@@ -47261,7 +47352,7 @@
         <v>1579</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>641</v>
@@ -47269,7 +47360,7 @@
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>1577</v>
@@ -47283,7 +47374,7 @@
         <v>1580</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>641</v>
@@ -47291,7 +47382,7 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>1577</v>
@@ -47313,7 +47404,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>1549</v>
@@ -47327,7 +47418,7 @@
         <v>1527</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>665</v>
@@ -47335,7 +47426,7 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>1584</v>
@@ -47349,7 +47440,7 @@
         <v>1527</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>665</v>
@@ -47357,7 +47448,7 @@
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>1584</v>
@@ -47447,7 +47538,7 @@
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="G258" s="1"/>
       <c r="H258" s="1" t="s">
@@ -47459,20 +47550,20 @@
         <v>1599</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>1600</v>
@@ -47483,7 +47574,7 @@
         <v>1601</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>808</v>
@@ -47491,10 +47582,10 @@
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>1602</v>
@@ -47545,7 +47636,7 @@
         <v>1609</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="15">
@@ -47591,7 +47682,7 @@
         <v>1609</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="15">
@@ -47669,7 +47760,7 @@
         <v>1628</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>1011</v>
@@ -47702,10 +47793,10 @@
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>1632</v>
@@ -47756,7 +47847,7 @@
         <v>1637</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>1638</v>
@@ -47778,7 +47869,7 @@
         <v>1524</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>1641</v>
@@ -47802,7 +47893,7 @@
         <v>1642</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>1641</v>
@@ -47826,7 +47917,7 @@
         <v>1643</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>1644</v>
@@ -47837,23 +47928,23 @@
         <v>1645</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>1646</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="15">
@@ -47861,7 +47952,7 @@
         <v>1647</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>1011</v>
@@ -47887,7 +47978,7 @@
         <v>1652</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>654</v>
@@ -47911,7 +48002,7 @@
         <v>1655</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>654</v>
@@ -47948,7 +48039,7 @@
         <v>1659</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>1660</v>
@@ -47972,7 +48063,7 @@
         <v>1661</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>1662</v>
@@ -47996,7 +48087,7 @@
         <v>1663</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>1662</v>
@@ -48020,7 +48111,7 @@
         <v>1666</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>1667</v>
@@ -48046,7 +48137,7 @@
         <v>1669</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>1670</v>
@@ -48066,11 +48157,11 @@
         <v>1537</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>1673</v>
@@ -48096,7 +48187,7 @@
         <v>1676</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>1677</v>
@@ -48131,20 +48222,20 @@
         <v>1681</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>654</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>1682</v>
@@ -48154,7 +48245,7 @@
   <autoFilter ref="A1:H287" xr:uid="{9519BF74-D290-344C-89B6-3818FC36DAA4}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{80155323-323C-8847-B0F5-A760C6AF21E4}"/>
@@ -48406,8 +48497,8 @@
   </sheetPr>
   <dimension ref="A1:F1149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView topLeftCell="A58" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -48479,7 +48570,7 @@
         <v>481</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="C4" s="1">
         <v>1786</v>
@@ -48497,7 +48588,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="C5" s="1">
         <v>1605</v>
@@ -48517,7 +48608,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="C6" s="1">
         <v>1605</v>
@@ -48877,7 +48968,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
@@ -48927,7 +49018,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -48999,7 +49090,7 @@
         <v>512</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="C35" s="1">
         <v>1894</v>
@@ -49133,7 +49224,7 @@
         <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
@@ -49213,7 +49304,7 @@
         <v>490</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="C47" s="1">
         <v>1809</v>
@@ -49231,7 +49322,7 @@
         <v>496</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C48" s="1">
         <v>1822</v>
@@ -49297,7 +49388,7 @@
         <v>602</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="C52" s="1">
         <v>1740</v>
@@ -49503,7 +49594,7 @@
         <v>494</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="C64" s="1">
         <v>1814</v>
@@ -49521,7 +49612,7 @@
         <v>498</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="C65" s="1">
         <v>1836</v>
@@ -49623,7 +49714,7 @@
         <v>612</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="C71" s="1">
         <v>1831</v>
@@ -49725,7 +49816,7 @@
         <v>514</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="C77" s="1">
         <v>1835</v>
@@ -49801,7 +49892,7 @@
         <v>9</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15">
@@ -50083,7 +50174,7 @@
         <v>518</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="C98" s="1">
         <v>1531</v>
@@ -50153,7 +50244,7 @@
         <v>633</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C102" s="1">
         <v>1881</v>
@@ -50165,7 +50256,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15">
@@ -50205,7 +50296,7 @@
         <v>488</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="C105" s="1">
         <v>1805</v>
@@ -50293,7 +50384,7 @@
         <v>508</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="C110" s="1">
         <v>1869</v>
@@ -50311,7 +50402,7 @@
         <v>506</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C111" s="1">
         <v>1865</v>
@@ -50329,7 +50420,7 @@
         <v>527</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="C112" s="1">
         <v>1872</v>
@@ -50381,7 +50472,7 @@
         <v>492</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="C115" s="1">
         <v>1813</v>
@@ -50444,7 +50535,7 @@
         <v>12</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="F118" s="1"/>
     </row>
@@ -50747,7 +50838,7 @@
         <v>542</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="C136" s="1">
         <v>1713</v>
@@ -50827,7 +50918,7 @@
         <v>486</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="C141" s="1">
         <v>1803</v>
@@ -50897,7 +50988,7 @@
         <v>500</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="C145" s="1">
         <v>1835</v>
@@ -51003,7 +51094,7 @@
         <v>502</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="C151" s="1">
         <v>1846</v>
@@ -51033,7 +51124,7 @@
         <v>9</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="15">
@@ -51141,7 +51232,7 @@
         <v>483</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="C159" s="1">
         <v>1794</v>
@@ -51159,7 +51250,7 @@
         <v>485</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="C160" s="1">
         <v>1795</v>
@@ -51193,7 +51284,7 @@
         <v>614</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="C162" s="1">
         <v>1726</v>
@@ -51211,7 +51302,7 @@
         <v>616</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="C163" s="1">
         <v>1726</v>
@@ -51229,7 +51320,7 @@
         <v>615</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="C164" s="1">
         <v>1727</v>
@@ -51393,7 +51484,7 @@
         <v>525</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="C174" s="1">
         <v>1591</v>
@@ -51571,7 +51662,7 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15">
@@ -51579,7 +51670,7 @@
         <v>559</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C185" s="1">
         <v>1705</v>
@@ -51597,7 +51688,7 @@
         <v>560</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="C186" s="1">
         <v>1705</v>
@@ -51701,7 +51792,7 @@
         <v>504</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C192" s="1">
         <v>1865</v>
@@ -51719,7 +51810,7 @@
         <v>510</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="C193" s="1">
         <v>1874</v>
@@ -51737,7 +51828,7 @@
         <v>511</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="C194" s="1">
         <v>1874</v>
@@ -51904,7 +51995,7 @@
     </row>
     <row r="204" spans="1:6" ht="15">
       <c r="A204" s="1" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>561</v>
@@ -52013,7 +52104,7 @@
         <v>523</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="C210" s="1">
         <v>1609</v>
@@ -52049,7 +52140,7 @@
         <v>528</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="C212" s="1">
         <v>1754</v>
@@ -52061,7 +52152,7 @@
         <v>19</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="15">
@@ -52307,7 +52398,7 @@
         <v>539</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="C227" s="1">
         <v>1665</v>
@@ -52327,7 +52418,7 @@
         <v>541</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="C228" s="1">
         <v>1666</v>
@@ -52411,7 +52502,7 @@
         <v>9</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="15">
@@ -52471,7 +52562,7 @@
         <v>521</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="C236" s="1">
         <v>1564</v>
@@ -52499,7 +52590,7 @@
         <v>9</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="15">
@@ -52563,7 +52654,7 @@
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15">
@@ -52621,7 +52712,7 @@
         <v>579</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="C245" s="1">
         <v>1783</v>
@@ -52641,7 +52732,7 @@
         <v>582</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="C246" s="1">
         <v>1792</v>
@@ -52689,7 +52780,7 @@
       </c>
       <c r="E248" s="1"/>
       <c r="F248" s="1" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="15">
@@ -52713,7 +52804,7 @@
         <v>532</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="C250" s="1">
         <v>1672</v>
@@ -52790,7 +52881,7 @@
         <v>623</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>627</v>
@@ -53795,13 +53886,13 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F231" r:id="rId1" location="/dir/node?dataId=ITKC_MO_0304A_0100_040_0010&amp;solrQ=query%E2%80%A0%E6%93%AC%E5%94%90%E9%83%AD%E5%AD%90%E5%84%80%E8%AC%9D%E5%B0%81%E6%B1%BE%E9%99%BD%E7%8E%8B%E8%A1%A8$solr_sortField%E2%80%A0%EA%B7%B8%EB%A3%B9%EC%25" xr:uid="{38C84420-58E9-FA4B-A380-C0400FB0539D}"/>
@@ -53832,7 +53923,7 @@
   <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -53846,7 +53937,7 @@
         <v>2137</v>
       </c>
       <c r="B1" t="s">
-        <v>2138</v>
+        <v>3385</v>
       </c>
       <c r="C1" t="s">
         <v>2139</v>
@@ -53902,13 +53993,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="C5" t="s">
         <v>657</v>
       </c>
       <c r="D5" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -53916,13 +54007,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="C6" t="s">
         <v>661</v>
       </c>
       <c r="D6" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -56354,13 +56445,13 @@
         <v>481</v>
       </c>
       <c r="B181" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="C181" t="s">
         <v>1436</v>
       </c>
       <c r="D181" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15">
@@ -56368,13 +56459,13 @@
         <v>483</v>
       </c>
       <c r="B182" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="C182" t="s">
         <v>1443</v>
       </c>
       <c r="D182" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15">
@@ -56382,13 +56473,13 @@
         <v>485</v>
       </c>
       <c r="B183" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="C183" t="s">
         <v>1444</v>
       </c>
       <c r="D183" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15">
@@ -56396,13 +56487,13 @@
         <v>486</v>
       </c>
       <c r="B184" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="C184" t="s">
         <v>1445</v>
       </c>
       <c r="D184" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15">
@@ -56410,13 +56501,13 @@
         <v>488</v>
       </c>
       <c r="B185" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="C185" t="s">
         <v>1447</v>
       </c>
       <c r="D185" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15">
@@ -56424,13 +56515,13 @@
         <v>490</v>
       </c>
       <c r="B186" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="C186" t="s">
         <v>1449</v>
       </c>
       <c r="D186" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15">
@@ -56438,7 +56529,7 @@
         <v>492</v>
       </c>
       <c r="B187" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="C187" t="s">
         <v>1452</v>
@@ -56452,13 +56543,13 @@
         <v>494</v>
       </c>
       <c r="B188" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="C188" t="s">
         <v>1457</v>
       </c>
       <c r="D188" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15">
@@ -56466,13 +56557,13 @@
         <v>496</v>
       </c>
       <c r="B189" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="C189" t="s">
         <v>1460</v>
       </c>
       <c r="D189" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15">
@@ -56480,13 +56571,13 @@
         <v>498</v>
       </c>
       <c r="B190" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="C190" t="s">
         <v>1462</v>
       </c>
       <c r="D190" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15">
@@ -56494,13 +56585,13 @@
         <v>500</v>
       </c>
       <c r="B191" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="C191" t="s">
         <v>1464</v>
       </c>
       <c r="D191" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15">
@@ -56508,13 +56599,13 @@
         <v>502</v>
       </c>
       <c r="B192" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="C192" t="s">
         <v>1466</v>
       </c>
       <c r="D192" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15">
@@ -56522,13 +56613,13 @@
         <v>504</v>
       </c>
       <c r="B193" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C193" t="s">
         <v>1469</v>
       </c>
       <c r="D193" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15">
@@ -56536,13 +56627,13 @@
         <v>506</v>
       </c>
       <c r="B194" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="C194" t="s">
         <v>1472</v>
       </c>
       <c r="D194" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15">
@@ -56550,13 +56641,13 @@
         <v>508</v>
       </c>
       <c r="B195" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="C195" t="s">
         <v>1474</v>
       </c>
       <c r="D195" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15">
@@ -56564,13 +56655,13 @@
         <v>510</v>
       </c>
       <c r="B196" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="C196" t="s">
         <v>1477</v>
       </c>
       <c r="D196" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15">
@@ -56578,13 +56669,13 @@
         <v>511</v>
       </c>
       <c r="B197" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="C197" t="s">
         <v>1480</v>
       </c>
       <c r="D197" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15">
@@ -56592,13 +56683,13 @@
         <v>512</v>
       </c>
       <c r="B198" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="C198" t="s">
         <v>1482</v>
       </c>
       <c r="D198" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15">
@@ -56606,13 +56697,13 @@
         <v>514</v>
       </c>
       <c r="B199" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="C199" t="s">
         <v>1486</v>
       </c>
       <c r="D199" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15">
@@ -56634,13 +56725,13 @@
         <v>518</v>
       </c>
       <c r="B201" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="C201" t="s">
         <v>1493</v>
       </c>
       <c r="D201" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15">
@@ -56662,13 +56753,13 @@
         <v>521</v>
       </c>
       <c r="B203" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="C203" t="s">
         <v>1502</v>
       </c>
       <c r="D203" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15">
@@ -56676,13 +56767,13 @@
         <v>523</v>
       </c>
       <c r="B204" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="C204" t="s">
         <v>1505</v>
       </c>
       <c r="D204" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15">
@@ -56690,13 +56781,13 @@
         <v>525</v>
       </c>
       <c r="B205" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="C205" t="s">
         <v>1509</v>
       </c>
       <c r="D205" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15">
@@ -56704,13 +56795,13 @@
         <v>527</v>
       </c>
       <c r="B206" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="C206" t="s">
         <v>1512</v>
       </c>
       <c r="D206" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15">
@@ -56718,13 +56809,13 @@
         <v>528</v>
       </c>
       <c r="B207" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="C207" t="s">
         <v>1515</v>
       </c>
       <c r="D207" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15">
@@ -56746,13 +56837,13 @@
         <v>532</v>
       </c>
       <c r="B209" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="C209" t="s">
         <v>1523</v>
       </c>
       <c r="D209" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15">
@@ -56774,13 +56865,13 @@
         <v>539</v>
       </c>
       <c r="B211" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="C211" t="s">
         <v>1536</v>
       </c>
       <c r="D211" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15">
@@ -56788,13 +56879,13 @@
         <v>541</v>
       </c>
       <c r="B212" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="C212" t="s">
         <v>1541</v>
       </c>
       <c r="D212" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15">
@@ -56802,13 +56893,13 @@
         <v>542</v>
       </c>
       <c r="B213" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="C213" t="s">
         <v>1543</v>
       </c>
       <c r="D213" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15">
@@ -56836,7 +56927,7 @@
         <v>1572</v>
       </c>
       <c r="D215" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15">
@@ -56858,13 +56949,13 @@
         <v>559</v>
       </c>
       <c r="B217" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C217" t="s">
         <v>1579</v>
       </c>
       <c r="D217" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15">
@@ -56872,13 +56963,13 @@
         <v>560</v>
       </c>
       <c r="B218" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="C218" t="s">
         <v>1580</v>
       </c>
       <c r="D218" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15">
@@ -56928,13 +57019,13 @@
         <v>579</v>
       </c>
       <c r="B222" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="C222" t="s">
         <v>1599</v>
       </c>
       <c r="D222" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15">
@@ -56942,13 +57033,13 @@
         <v>582</v>
       </c>
       <c r="B223" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="C223" t="s">
         <v>1601</v>
       </c>
       <c r="D223" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15">
@@ -56998,13 +57089,13 @@
         <v>602</v>
       </c>
       <c r="B227" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="C227" t="s">
         <v>1628</v>
       </c>
       <c r="D227" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15">
@@ -57026,13 +57117,13 @@
         <v>612</v>
       </c>
       <c r="B229" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="C229" t="s">
         <v>1645</v>
       </c>
       <c r="D229" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15">
@@ -57040,13 +57131,13 @@
         <v>614</v>
       </c>
       <c r="B230" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="C230" t="s">
         <v>1647</v>
       </c>
       <c r="D230" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15">
@@ -57054,13 +57145,13 @@
         <v>615</v>
       </c>
       <c r="B231" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="C231" t="s">
         <v>1652</v>
       </c>
       <c r="D231" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15">
@@ -57068,13 +57159,13 @@
         <v>616</v>
       </c>
       <c r="B232" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="C232" t="s">
         <v>1655</v>
       </c>
       <c r="D232" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15">
@@ -57124,13 +57215,13 @@
         <v>633</v>
       </c>
       <c r="B236" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="C236" t="s">
         <v>1681</v>
       </c>
       <c r="D236" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15"/>
@@ -57144,7 +57235,7 @@
   <autoFilter ref="A1:D1" xr:uid="{01A3B404-0389-034C-A964-7CEE67733FE8}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -57158,8 +57249,8 @@
   </sheetPr>
   <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A33" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -57175,7 +57266,7 @@
         <v>2137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2139</v>
@@ -57186,1827 +57277,1827 @@
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
-        <v>2194</v>
+        <v>2352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>613</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>516</v>
+        <v>612</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>517</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
-        <v>2197</v>
+        <v>2318</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>515</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3543</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
-        <v>2319</v>
+        <v>2208</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>520</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
-        <v>2320</v>
+        <v>2184</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>522</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>521</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3544</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
-        <v>2322</v>
+        <v>2185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>526</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>525</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3545</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
-        <v>2321</v>
+        <v>2186</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>524</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>523</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3608</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
-        <v>2326</v>
+        <v>2189</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>538</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3549</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
-        <v>2326</v>
+        <v>2192</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>536</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>537</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
-        <v>2324</v>
+        <v>2187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>533</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>532</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3547</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
-        <v>2324</v>
+        <v>2191</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>533</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3547</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="1" t="s">
-        <v>2333</v>
+        <v>2190</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>558</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>557</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="1" t="s">
-        <v>2333</v>
+        <v>2195</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>558</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>559</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3611</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="1" t="s">
-        <v>2333</v>
+        <v>2188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>558</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>560</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3612</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="1" t="s">
-        <v>2327</v>
+        <v>2188</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>542</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3610</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
-        <v>2353</v>
+        <v>2193</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3229</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>616</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3530</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>2353</v>
+        <v>2196</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3229</v>
+        <v>92</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>614</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3529</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>2353</v>
+        <v>2194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3229</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>615</v>
+        <v>516</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3596</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>2342</v>
+        <v>2194</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>583</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>579</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3594</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>2301</v>
+        <v>2194</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>482</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>481</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3533</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>2342</v>
+        <v>2201</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>583</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>582</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3527</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>2302</v>
+        <v>2199</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2303</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>483</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3534</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>2302</v>
+        <v>2198</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2303</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>485</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3535</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>2304</v>
+        <v>2197</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>487</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3600</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>2305</v>
+        <v>2197</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>489</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>488</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3601</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>2306</v>
+        <v>2200</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>491</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>490</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3602</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>2308</v>
+        <v>2203</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>495</v>
+        <v>115</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>494</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3536</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>2309</v>
+        <v>2202</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>497</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>496</v>
+        <v>110</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3537</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>2352</v>
+        <v>2204</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>613</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>612</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3528</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>2318</v>
+        <v>2204</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>515</v>
+        <v>118</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>514</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3607</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>2311</v>
+        <v>2209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>501</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>500</v>
+        <v>132</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3604</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>2310</v>
+        <v>2205</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>499</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>498</v>
+        <v>116</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3538</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2312</v>
+        <v>2205</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>503</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>502</v>
+        <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>3539</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>2314</v>
+        <v>2207</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>507</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>506</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>3540</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2313</v>
+        <v>2220</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>505</v>
+        <v>177</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>504</v>
+        <v>175</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3540</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>2315</v>
+        <v>2214</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>509</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>508</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>3541</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3546</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>2313</v>
+        <v>2319</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>505</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>3605</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>2313</v>
+        <v>2210</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>505</v>
+        <v>137</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>511</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3606</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>2359</v>
+        <v>2212</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>634</v>
+        <v>143</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>633</v>
+        <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>3531</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>2348</v>
+        <v>2212</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>599</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>597</v>
+        <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>598</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2317</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>512</v>
+        <v>150</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3542</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
       <c r="A44" s="1" t="s">
-        <v>2184</v>
+        <v>2217</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>701</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15">
       <c r="A45" s="1" t="s">
-        <v>2185</v>
+        <v>2213</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>701</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15">
       <c r="A46" s="1" t="s">
-        <v>2186</v>
+        <v>2206</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>711</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15">
       <c r="A47" s="1" t="s">
-        <v>2187</v>
+        <v>2206</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15">
       <c r="A48" s="1" t="s">
-        <v>2188</v>
+        <v>2206</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
       <c r="A49" s="1" t="s">
-        <v>2189</v>
+        <v>2206</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>554</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15">
       <c r="A50" s="1" t="s">
-        <v>2190</v>
+        <v>2215</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>156</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15">
       <c r="A51" s="1" t="s">
-        <v>2191</v>
+        <v>2211</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>138</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
       <c r="A52" s="1" t="s">
-        <v>2188</v>
+        <v>2219</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15">
       <c r="A53" s="1" t="s">
-        <v>2192</v>
+        <v>2216</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15">
       <c r="A54" s="1" t="s">
-        <v>2193</v>
+        <v>2226</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="1" t="s">
-        <v>2194</v>
+        <v>2218</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
       <c r="A56" s="1" t="s">
-        <v>2195</v>
+        <v>2218</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15">
       <c r="A57" s="1" t="s">
-        <v>2196</v>
+        <v>2218</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15">
       <c r="A58" s="1" t="s">
-        <v>2194</v>
+        <v>2218</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15">
       <c r="A59" s="1" t="s">
-        <v>2197</v>
+        <v>2224</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15">
       <c r="A60" s="1" t="s">
-        <v>2198</v>
+        <v>2224</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="1" t="s">
-        <v>2199</v>
+        <v>2222</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="1" t="s">
-        <v>2200</v>
+        <v>2232</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>106</v>
+        <v>3218</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15">
       <c r="A63" s="1" t="s">
-        <v>2201</v>
+        <v>2232</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>3218</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
       <c r="A64" s="1" t="s">
-        <v>2202</v>
+        <v>2221</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15">
       <c r="A65" s="1" t="s">
-        <v>2203</v>
+        <v>2223</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>188</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15">
       <c r="A66" s="1" t="s">
-        <v>2204</v>
+        <v>2223</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15">
       <c r="A67" s="1" t="s">
-        <v>2204</v>
+        <v>2223</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="1" t="s">
-        <v>2205</v>
+        <v>2236</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
       <c r="A69" s="1" t="s">
-        <v>2206</v>
+        <v>2225</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15">
       <c r="A70" s="1" t="s">
-        <v>2206</v>
+        <v>2233</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="1" t="s">
-        <v>2207</v>
+        <v>2227</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
       <c r="A72" s="1" t="s">
-        <v>2208</v>
+        <v>2227</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15">
       <c r="A73" s="1" t="s">
-        <v>2211</v>
+        <v>2243</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15">
       <c r="A74" s="1" t="s">
-        <v>2210</v>
+        <v>2321</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>137</v>
+        <v>524</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>135</v>
+        <v>523</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>136</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15">
       <c r="A75" s="1" t="s">
-        <v>2209</v>
+        <v>2238</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15">
       <c r="A76" s="1" t="s">
-        <v>2212</v>
+        <v>2231</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
       <c r="A77" s="1" t="s">
-        <v>2212</v>
+        <v>2239</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15">
       <c r="A78" s="1" t="s">
-        <v>2213</v>
+        <v>2228</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15">
       <c r="A79" s="1" t="s">
-        <v>2212</v>
+        <v>2237</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
       <c r="A80" s="1" t="s">
-        <v>2214</v>
+        <v>2322</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>147</v>
+        <v>525</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>148</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15">
       <c r="A81" s="1" t="s">
-        <v>2206</v>
+        <v>2141</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15">
       <c r="A82" s="1" t="s">
-        <v>2206</v>
+        <v>2141</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>554</v>
+        <v>2142</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>555</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="1" t="s">
-        <v>2205</v>
+        <v>2234</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
       <c r="A84" s="1" t="s">
-        <v>2215</v>
+        <v>2147</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>3214</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>156</v>
+        <v>2148</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>157</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15">
       <c r="A85" s="1" t="s">
-        <v>2216</v>
+        <v>2230</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15">
       <c r="A86" s="1" t="s">
-        <v>2217</v>
+        <v>2229</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15">
       <c r="A87" s="1" t="s">
-        <v>2218</v>
+        <v>2150</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15">
       <c r="A88" s="1" t="s">
-        <v>2218</v>
+        <v>2150</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>170</v>
+        <v>2151</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>171</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15">
       <c r="A89" s="1" t="s">
-        <v>2218</v>
+        <v>2150</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>2153</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>169</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15">
       <c r="A90" s="1" t="s">
-        <v>2219</v>
+        <v>2235</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15">
       <c r="A91" s="1" t="s">
-        <v>2220</v>
+        <v>2246</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>175</v>
+        <v>271</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15">
       <c r="A92" s="1" t="s">
-        <v>2218</v>
+        <v>2155</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>178</v>
+        <v>2156</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>179</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15">
       <c r="A93" s="1" t="s">
-        <v>2221</v>
+        <v>2144</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15">
       <c r="A94" s="1" t="s">
-        <v>2223</v>
+        <v>2144</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15">
       <c r="A95" s="1" t="s">
-        <v>2222</v>
+        <v>2144</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15">
       <c r="A96" s="1" t="s">
-        <v>2224</v>
+        <v>2144</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15">
       <c r="A97" s="1" t="s">
-        <v>2223</v>
+        <v>2144</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15">
       <c r="A98" s="1" t="s">
-        <v>2223</v>
+        <v>2144</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15">
       <c r="A99" s="1" t="s">
-        <v>2225</v>
+        <v>2144</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>196</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
       <c r="A100" s="1" t="s">
-        <v>2226</v>
+        <v>2144</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>198</v>
+        <v>286</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15">
       <c r="A101" s="1" t="s">
-        <v>2227</v>
+        <v>2144</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15">
       <c r="A102" s="1" t="s">
-        <v>2227</v>
+        <v>2144</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15">
       <c r="A103" s="1" t="s">
-        <v>2228</v>
+        <v>2144</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15">
       <c r="A104" s="1" t="s">
-        <v>2230</v>
+        <v>2144</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>211</v>
+        <v>2145</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>212</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="1" t="s">
-        <v>2229</v>
+        <v>2242</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15">
       <c r="A106" s="1" t="s">
-        <v>2231</v>
+        <v>2240</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15">
       <c r="A107" s="1" t="s">
-        <v>2232</v>
+        <v>2158</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>3218</v>
+        <v>30</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15">
       <c r="A108" s="1" t="s">
-        <v>2232</v>
+        <v>2158</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>3218</v>
+        <v>30</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15">
       <c r="A109" s="1" t="s">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15">
       <c r="A110" s="1" t="s">
-        <v>2234</v>
+        <v>2158</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>224</v>
+        <v>2161</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>225</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15">
       <c r="A111" s="1" t="s">
-        <v>2233</v>
+        <v>2158</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>221</v>
+        <v>2159</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>222</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15">
       <c r="A112" s="1" t="s">
-        <v>2141</v>
+        <v>2247</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>8</v>
+        <v>3220</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15">
       <c r="A113" s="1" t="s">
-        <v>2235</v>
+        <v>2247</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>235</v>
+        <v>3220</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15">
       <c r="A114" s="1" t="s">
-        <v>2224</v>
+        <v>2244</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15">
       <c r="A115" s="1" t="s">
-        <v>2236</v>
+        <v>2241</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15">
       <c r="A116" s="1" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15">
       <c r="A117" s="1" t="s">
-        <v>2144</v>
+        <v>2163</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15">
       <c r="A118" s="1" t="s">
-        <v>2144</v>
+        <v>2163</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>241</v>
+        <v>2164</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>243</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15">
       <c r="A119" s="1" t="s">
-        <v>2144</v>
+        <v>2163</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>241</v>
+        <v>2166</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>242</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15">
       <c r="A120" s="1" t="s">
-        <v>2158</v>
+        <v>2168</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>247</v>
+        <v>2169</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>248</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15">
       <c r="A121" s="1" t="s">
-        <v>2238</v>
+        <v>2171</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>244</v>
+        <v>2172</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>245</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15">
       <c r="A122" s="1" t="s">
-        <v>2239</v>
+        <v>2263</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>251</v>
+        <v>349</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>250</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15">
       <c r="A123" s="1" t="s">
-        <v>2240</v>
+        <v>2254</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="15">
       <c r="A124" s="1" t="s">
-        <v>2241</v>
+        <v>2174</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="15">
       <c r="A125" s="1" t="s">
-        <v>2241</v>
+        <v>2174</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15">
       <c r="A126" s="1" t="s">
-        <v>2242</v>
+        <v>2174</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>259</v>
+        <v>331</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="15">
       <c r="A127" s="1" t="s">
-        <v>2244</v>
+        <v>2174</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>265</v>
+        <v>2175</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>266</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15">
       <c r="A128" s="1" t="s">
-        <v>2243</v>
+        <v>2174</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>262</v>
+        <v>2176</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>263</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15">
       <c r="A129" s="1" t="s">
-        <v>2144</v>
+        <v>2251</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15">
       <c r="A130" s="1" t="s">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="15">
       <c r="A131" s="1" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="15">
       <c r="A132" s="1" t="s">
-        <v>2158</v>
+        <v>2248</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="15">
@@ -59017,10 +59108,10 @@
         <v>270</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15">
@@ -59031,948 +59122,948 @@
         <v>270</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15">
       <c r="A135" s="1" t="s">
-        <v>2144</v>
+        <v>2245</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15">
       <c r="A136" s="1" t="s">
-        <v>2144</v>
+        <v>2245</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="15">
       <c r="A137" s="1" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15">
       <c r="A138" s="1" t="s">
-        <v>2144</v>
+        <v>2252</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="15">
       <c r="A139" s="1" t="s">
-        <v>2144</v>
+        <v>2253</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="15">
       <c r="A140" s="1" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>3220</v>
+        <v>299</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="15">
       <c r="A141" s="1" t="s">
-        <v>2245</v>
+        <v>2178</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>270</v>
+        <v>3216</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>286</v>
+        <v>2179</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>293</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="15">
       <c r="A142" s="1" t="s">
-        <v>2247</v>
+        <v>2255</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3220</v>
+        <v>319</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15">
       <c r="A143" s="1" t="s">
-        <v>2144</v>
+        <v>2271</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15">
       <c r="A144" s="1" t="s">
-        <v>2144</v>
+        <v>2181</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>281</v>
+        <v>2182</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>280</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15">
       <c r="A145" s="1" t="s">
-        <v>2144</v>
+        <v>2259</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15">
       <c r="A146" s="1" t="s">
-        <v>2250</v>
+        <v>2272</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>297</v>
+        <v>378</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>298</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15">
       <c r="A147" s="1" t="s">
-        <v>2249</v>
+        <v>2257</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15">
       <c r="A148" s="1" t="s">
-        <v>2163</v>
+        <v>2256</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>36</v>
+        <v>323</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>301</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15">
       <c r="A149" s="1" t="s">
-        <v>2251</v>
+        <v>2258</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15">
       <c r="A150" s="1" t="s">
-        <v>2252</v>
+        <v>2277</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15">
       <c r="A151" s="1" t="s">
-        <v>2253</v>
+        <v>2277</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15">
       <c r="A152" s="1" t="s">
-        <v>2174</v>
+        <v>2260</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15">
       <c r="A153" s="1" t="s">
-        <v>2174</v>
+        <v>2260</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>47</v>
+        <v>339</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15">
       <c r="A154" s="1" t="s">
-        <v>2158</v>
+        <v>2261</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15">
       <c r="A155" s="1" t="s">
-        <v>2254</v>
+        <v>2261</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15">
       <c r="A156" s="1" t="s">
-        <v>2255</v>
+        <v>2265</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15">
       <c r="A157" s="1" t="s">
-        <v>2251</v>
+        <v>2265</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>304</v>
+        <v>529</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>320</v>
+        <v>528</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>321</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15">
       <c r="A158" s="1" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15">
       <c r="A159" s="1" t="s">
-        <v>2323</v>
+        <v>2266</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>531</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15">
       <c r="A160" s="1" t="s">
-        <v>2323</v>
+        <v>2266</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>530</v>
+        <v>356</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>531</v>
+        <v>359</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15">
       <c r="A161" s="1" t="s">
-        <v>2257</v>
+        <v>2273</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15">
       <c r="A162" s="1" t="s">
-        <v>2258</v>
+        <v>2273</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15">
       <c r="A163" s="1" t="s">
-        <v>2174</v>
+        <v>2323</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>47</v>
+        <v>342</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>330</v>
+        <v>530</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>331</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15">
       <c r="A164" s="1" t="s">
-        <v>2259</v>
+        <v>2323</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>332</v>
+        <v>530</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>333</v>
+        <v>531</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15">
       <c r="A165" s="1" t="s">
-        <v>2245</v>
+        <v>2274</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>270</v>
+        <v>384</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15">
       <c r="A166" s="1" t="s">
-        <v>2260</v>
+        <v>2274</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15">
       <c r="A167" s="1" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15">
       <c r="A168" s="1" t="s">
-        <v>2261</v>
+        <v>2279</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>340</v>
+        <v>401</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15">
       <c r="A169" s="1" t="s">
-        <v>2326</v>
+        <v>2267</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>538</v>
+        <v>362</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>539</v>
+        <v>360</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>3548</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15">
       <c r="A170" s="1" t="s">
-        <v>2262</v>
+        <v>2267</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15">
       <c r="A171" s="1" t="s">
-        <v>2264</v>
+        <v>2324</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>352</v>
+        <v>533</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>350</v>
+        <v>532</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>351</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15">
       <c r="A172" s="1" t="s">
-        <v>2263</v>
+        <v>2324</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>349</v>
+        <v>533</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>347</v>
+        <v>532</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>348</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15">
       <c r="A173" s="1" t="s">
-        <v>2260</v>
+        <v>2268</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15">
       <c r="A174" s="1" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15">
       <c r="A175" s="1" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15">
       <c r="A176" s="1" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15">
       <c r="A177" s="1" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15">
       <c r="A178" s="1" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15">
       <c r="A179" s="1" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15">
       <c r="A180" s="1" t="s">
-        <v>2268</v>
+        <v>2326</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>366</v>
+        <v>538</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>367</v>
+        <v>541</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>368</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15">
       <c r="A181" s="1" t="s">
-        <v>2269</v>
+        <v>2326</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>371</v>
+        <v>538</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>373</v>
+        <v>536</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>374</v>
+        <v>537</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15">
       <c r="A182" s="1" t="s">
-        <v>2269</v>
+        <v>2326</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>371</v>
+        <v>538</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>373</v>
+        <v>539</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>374</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15">
       <c r="A183" s="1" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15">
       <c r="A184" s="1" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15">
       <c r="A185" s="1" t="s">
-        <v>2270</v>
+        <v>2284</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15">
       <c r="A186" s="1" t="s">
-        <v>2274</v>
+        <v>2284</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15">
       <c r="A187" s="1" t="s">
-        <v>2271</v>
+        <v>2283</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15">
       <c r="A188" s="1" t="s">
-        <v>2272</v>
+        <v>2283</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15">
       <c r="A189" s="1" t="s">
-        <v>2273</v>
+        <v>2283</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15">
       <c r="A190" s="1" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15">
       <c r="A191" s="1" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15">
       <c r="A192" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15">
       <c r="A193" s="1" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15">
       <c r="A194" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15">
       <c r="A195" s="1" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15">
       <c r="A196" s="1" t="s">
-        <v>2277</v>
+        <v>2327</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>393</v>
+        <v>542</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>394</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15">
       <c r="A197" s="1" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15">
       <c r="A198" s="1" t="s">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15">
       <c r="A199" s="1" t="s">
-        <v>2269</v>
+        <v>2282</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>371</v>
+        <v>3222</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>397</v>
+        <v>550</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15">
       <c r="A200" s="1" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>400</v>
+        <v>3222</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>398</v>
+        <v>549</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>399</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15">
       <c r="A201" s="1" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>403</v>
+        <v>3222</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>401</v>
+        <v>608</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>402</v>
+        <v>609</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15">
@@ -59983,10 +60074,10 @@
         <v>3222</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15">
@@ -59997,841 +60088,851 @@
         <v>3222</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>549</v>
+        <v>414</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>550</v>
+        <v>415</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15">
       <c r="A204" s="1" t="s">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>377</v>
+        <v>3222</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15">
       <c r="A205" s="1" t="s">
-        <v>2270</v>
+        <v>2280</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15">
       <c r="A206" s="1" t="s">
-        <v>2280</v>
+        <v>2285</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15">
       <c r="A207" s="1" t="s">
-        <v>2282</v>
+        <v>2333</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>3222</v>
+        <v>558</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15">
       <c r="A208" s="1" t="s">
-        <v>2282</v>
+        <v>2333</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>3222</v>
+        <v>558</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>609</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15">
       <c r="A209" s="1" t="s">
-        <v>2281</v>
+        <v>2333</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>413</v>
+        <v>558</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>411</v>
+        <v>560</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>412</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15">
       <c r="A210" s="1" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>3222</v>
+        <v>432</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15">
       <c r="A211" s="1" t="s">
-        <v>2282</v>
+        <v>2290</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>3222</v>
+        <v>446</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15">
       <c r="A212" s="1" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15">
       <c r="A213" s="1" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>420</v>
+        <v>566</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>421</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15">
       <c r="A214" s="1" t="s">
-        <v>2284</v>
+        <v>2289</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15">
       <c r="A215" s="1" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15">
       <c r="A216" s="1" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15">
       <c r="A217" s="1" t="s">
-        <v>2286</v>
+        <v>2353</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>432</v>
+        <v>3229</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>430</v>
+        <v>616</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>431</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15">
       <c r="A218" s="1" t="s">
-        <v>2287</v>
+        <v>2353</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>435</v>
+        <v>3229</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>433</v>
+        <v>614</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>434</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15">
       <c r="A219" s="1" t="s">
-        <v>2287</v>
+        <v>2353</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>435</v>
+        <v>3229</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>567</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15">
       <c r="A220" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15">
       <c r="A221" s="1" t="s">
-        <v>2283</v>
+        <v>2293</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15">
       <c r="A222" s="1" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15">
       <c r="A223" s="1" t="s">
-        <v>2290</v>
+        <v>2298</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15">
       <c r="A224" s="1" t="s">
-        <v>2291</v>
+        <v>3618</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15">
       <c r="A225" s="1" t="s">
-        <v>2265</v>
+        <v>2300</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>3609</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15">
       <c r="A226" s="1" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15">
       <c r="A227" s="1" t="s">
-        <v>2289</v>
+        <v>2295</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15">
       <c r="A228" s="1" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15">
       <c r="A229" s="1" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15">
       <c r="A230" s="1" t="s">
-        <v>2295</v>
+        <v>2304</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>462</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15">
       <c r="A231" s="1" t="s">
-        <v>2296</v>
+        <v>2340</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>468</v>
+        <v>574</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>466</v>
+        <v>572</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>467</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15">
       <c r="A232" s="1" t="s">
-        <v>2295</v>
+        <v>2340</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>463</v>
+        <v>574</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>464</v>
+        <v>572</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>465</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15">
       <c r="A233" s="1" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15">
       <c r="A234" s="1" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15">
       <c r="A235" s="1" t="s">
-        <v>2299</v>
+        <v>2341</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>474</v>
+        <v>576</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>470</v>
+        <v>577</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>473</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15">
       <c r="A236" s="1" t="s">
-        <v>2300</v>
+        <v>2342</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>477</v>
+        <v>583</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>475</v>
+        <v>579</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>476</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15">
       <c r="A237" s="1" t="s">
-        <v>3620</v>
+        <v>2342</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>480</v>
+        <v>583</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>478</v>
+        <v>582</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>479</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15">
       <c r="A238" s="1" t="s">
-        <v>2340</v>
+        <v>2306</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>574</v>
+        <v>491</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>572</v>
+        <v>490</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>573</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15">
       <c r="A239" s="1" t="s">
-        <v>2340</v>
+        <v>2302</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>574</v>
+        <v>2303</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>572</v>
+        <v>483</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>573</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15">
       <c r="A240" s="1" t="s">
-        <v>2343</v>
+        <v>2302</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>587</v>
+        <v>2303</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>585</v>
+        <v>485</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>586</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15">
       <c r="A241" s="1" t="s">
-        <v>2341</v>
+        <v>2301</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>577</v>
+        <v>481</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>578</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15">
       <c r="A242" s="1" t="s">
-        <v>2356</v>
+        <v>2343</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15">
       <c r="A243" s="1" t="s">
-        <v>2356</v>
+        <v>2305</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>623</v>
+        <v>489</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>621</v>
+        <v>488</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>622</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15">
       <c r="A244" s="1" t="s">
-        <v>2356</v>
+        <v>2307</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>623</v>
+        <v>493</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>625</v>
+        <v>492</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>626</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15">
       <c r="A245" s="1" t="s">
-        <v>2347</v>
+        <v>2356</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15">
       <c r="A246" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15">
       <c r="A247" s="1" t="s">
-        <v>2174</v>
+        <v>2356</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>47</v>
+        <v>623</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2175</v>
+        <v>625</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>3385</v>
+        <v>626</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15">
       <c r="A248" s="1" t="s">
-        <v>2174</v>
+        <v>2309</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>47</v>
+        <v>497</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2176</v>
+        <v>496</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>2177</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15">
       <c r="A249" s="1" t="s">
-        <v>2181</v>
+        <v>2308</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>56</v>
+        <v>495</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2182</v>
+        <v>494</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>2183</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15">
       <c r="A250" s="1" t="s">
-        <v>2171</v>
+        <v>2312</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2172</v>
+        <v>502</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>2173</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15">
       <c r="A251" s="1" t="s">
-        <v>2178</v>
+        <v>2310</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3216</v>
+        <v>499</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2179</v>
+        <v>498</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>2180</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15">
       <c r="A252" s="1" t="s">
-        <v>2155</v>
+        <v>2313</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>26</v>
+        <v>505</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2156</v>
+        <v>504</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>2157</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15">
       <c r="A253" s="1" t="s">
-        <v>2158</v>
+        <v>2313</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>30</v>
+        <v>505</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2161</v>
+        <v>510</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>2162</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15">
       <c r="A254" s="1" t="s">
-        <v>2163</v>
+        <v>2313</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>36</v>
+        <v>505</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2164</v>
+        <v>511</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>2165</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15">
       <c r="A255" s="1" t="s">
-        <v>2163</v>
+        <v>2347</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>36</v>
+        <v>596</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2166</v>
+        <v>594</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>2167</v>
+        <v>595</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15">
       <c r="A256" s="1" t="s">
-        <v>2147</v>
+        <v>2357</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3214</v>
+        <v>630</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2148</v>
+        <v>628</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>2149</v>
+        <v>629</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15">
       <c r="A257" s="1" t="s">
-        <v>2150</v>
+        <v>2314</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2151</v>
+        <v>506</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>2152</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15">
       <c r="A258" s="1" t="s">
-        <v>2150</v>
+        <v>2314</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2153</v>
+        <v>527</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>2154</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15">
       <c r="A259" s="1" t="s">
-        <v>2168</v>
+        <v>2315</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>41</v>
+        <v>509</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>2169</v>
+        <v>508</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>2170</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15">
       <c r="A260" s="1" t="s">
-        <v>2144</v>
+        <v>2359</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>12</v>
+        <v>634</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>2145</v>
+        <v>633</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>2146</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15">
       <c r="A261" s="1" t="s">
-        <v>2141</v>
+        <v>2348</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>8</v>
+        <v>599</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>2142</v>
+        <v>597</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>2143</v>
+        <v>598</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15">
       <c r="A262" s="1" t="s">
-        <v>2158</v>
+        <v>2316</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>30</v>
+        <v>2317</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>2159</v>
+        <v>512</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>2160</v>
+        <v>3540</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{B8552D3E-8D1E-7E4B-8FB3-3E311F6494F4}"/>
+  <autoFilter ref="A1:D1" xr:uid="{B8552D3E-8D1E-7E4B-8FB3-3E311F6494F4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D262">
+      <sortCondition ref="A1:A262"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -60844,7 +60945,7 @@
   </sheetPr>
   <dimension ref="A1:D1182"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -60916,13 +61017,13 @@
         <v>657</v>
       </c>
       <c r="B5" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="C5" t="s">
         <v>1702</v>
       </c>
       <c r="D5" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -60930,13 +61031,13 @@
         <v>661</v>
       </c>
       <c r="B6" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="C6" t="s">
         <v>1704</v>
       </c>
       <c r="D6" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -63654,13 +63755,13 @@
         <v>1436</v>
       </c>
       <c r="B201" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="C201" t="s">
         <v>2043</v>
       </c>
       <c r="D201" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15">
@@ -63668,13 +63769,13 @@
         <v>1439</v>
       </c>
       <c r="B202" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="C202" t="s">
         <v>2045</v>
       </c>
       <c r="D202" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15">
@@ -63682,13 +63783,13 @@
         <v>1443</v>
       </c>
       <c r="B203" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="C203" t="s">
         <v>2046</v>
       </c>
       <c r="D203" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15">
@@ -63696,13 +63797,13 @@
         <v>1444</v>
       </c>
       <c r="B204" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C204" t="s">
         <v>2047</v>
       </c>
       <c r="D204" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15">
@@ -63710,13 +63811,13 @@
         <v>1445</v>
       </c>
       <c r="B205" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="C205" t="s">
         <v>2048</v>
       </c>
       <c r="D205" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15">
@@ -63724,13 +63825,13 @@
         <v>1447</v>
       </c>
       <c r="B206" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="C206" t="s">
         <v>2050</v>
       </c>
       <c r="D206" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15">
@@ -63738,13 +63839,13 @@
         <v>1449</v>
       </c>
       <c r="B207" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="C207" t="s">
         <v>2052</v>
       </c>
       <c r="D207" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15">
@@ -63758,7 +63859,7 @@
         <v>2053</v>
       </c>
       <c r="D208" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15">
@@ -63766,13 +63867,13 @@
         <v>1457</v>
       </c>
       <c r="B209" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="C209" t="s">
         <v>2054</v>
       </c>
       <c r="D209" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15">
@@ -63780,13 +63881,13 @@
         <v>1460</v>
       </c>
       <c r="B210" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C210" t="s">
         <v>2055</v>
       </c>
       <c r="D210" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15">
@@ -63794,13 +63895,13 @@
         <v>1462</v>
       </c>
       <c r="B211" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="C211" t="s">
         <v>2057</v>
       </c>
       <c r="D211" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15">
@@ -63808,13 +63909,13 @@
         <v>1464</v>
       </c>
       <c r="B212" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="C212" t="s">
         <v>2059</v>
       </c>
       <c r="D212" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15">
@@ -63822,13 +63923,13 @@
         <v>1466</v>
       </c>
       <c r="B213" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="C213" t="s">
         <v>2061</v>
       </c>
       <c r="D213" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15">
@@ -63836,13 +63937,13 @@
         <v>1469</v>
       </c>
       <c r="B214" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C214" t="s">
         <v>2063</v>
       </c>
       <c r="D214" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15">
@@ -63850,13 +63951,13 @@
         <v>1472</v>
       </c>
       <c r="B215" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C215" t="s">
         <v>2064</v>
       </c>
       <c r="D215" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15">
@@ -63864,13 +63965,13 @@
         <v>1474</v>
       </c>
       <c r="B216" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="C216" t="s">
         <v>2066</v>
       </c>
       <c r="D216" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15">
@@ -63878,13 +63979,13 @@
         <v>1477</v>
       </c>
       <c r="B217" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="C217" t="s">
         <v>2067</v>
       </c>
       <c r="D217" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15">
@@ -63892,13 +63993,13 @@
         <v>1480</v>
       </c>
       <c r="B218" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="C218" t="s">
         <v>2069</v>
       </c>
       <c r="D218" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15">
@@ -63906,13 +64007,13 @@
         <v>1482</v>
       </c>
       <c r="B219" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="C219" t="s">
         <v>2070</v>
       </c>
       <c r="D219" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15">
@@ -63920,13 +64021,13 @@
         <v>1486</v>
       </c>
       <c r="B220" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="C220" t="s">
         <v>2071</v>
       </c>
       <c r="D220" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15">
@@ -63948,13 +64049,13 @@
         <v>1493</v>
       </c>
       <c r="B222" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="C222" t="s">
         <v>2074</v>
       </c>
       <c r="D222" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15">
@@ -63976,13 +64077,13 @@
         <v>1502</v>
       </c>
       <c r="B224" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="C224" t="s">
         <v>2077</v>
       </c>
       <c r="D224" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15">
@@ -63990,13 +64091,13 @@
         <v>1505</v>
       </c>
       <c r="B225" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="C225" t="s">
         <v>2078</v>
       </c>
       <c r="D225" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15">
@@ -64004,13 +64105,13 @@
         <v>1509</v>
       </c>
       <c r="B226" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="C226" t="s">
         <v>2079</v>
       </c>
       <c r="D226" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15">
@@ -64018,13 +64119,13 @@
         <v>1512</v>
       </c>
       <c r="B227" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="C227" t="s">
         <v>2080</v>
       </c>
       <c r="D227" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15">
@@ -64032,13 +64133,13 @@
         <v>1515</v>
       </c>
       <c r="B228" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="C228" t="s">
         <v>2081</v>
       </c>
       <c r="D228" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15">
@@ -64074,13 +64175,13 @@
         <v>1523</v>
       </c>
       <c r="B231" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="C231" t="s">
         <v>2085</v>
       </c>
       <c r="D231" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15">
@@ -64088,13 +64189,13 @@
         <v>1523</v>
       </c>
       <c r="B232" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="C232" t="s">
         <v>2085</v>
       </c>
       <c r="D232" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15">
@@ -64116,13 +64217,13 @@
         <v>1536</v>
       </c>
       <c r="B234" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="C234" t="s">
         <v>2090</v>
       </c>
       <c r="D234" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15">
@@ -64130,13 +64231,13 @@
         <v>1541</v>
       </c>
       <c r="B235" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="C235" t="s">
         <v>2091</v>
       </c>
       <c r="D235" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15">
@@ -64144,13 +64245,13 @@
         <v>1543</v>
       </c>
       <c r="B236" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="C236" t="s">
         <v>2093</v>
       </c>
       <c r="D236" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15">
@@ -64214,13 +64315,13 @@
         <v>1579</v>
       </c>
       <c r="B241" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="C241" t="s">
         <v>2101</v>
       </c>
       <c r="D241" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15">
@@ -64228,13 +64329,13 @@
         <v>1580</v>
       </c>
       <c r="B242" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="C242" t="s">
         <v>2102</v>
       </c>
       <c r="D242" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15">
@@ -64242,13 +64343,13 @@
         <v>1527</v>
       </c>
       <c r="B243" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="C243" t="s">
         <v>2087</v>
       </c>
       <c r="D243" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15">
@@ -64256,13 +64357,13 @@
         <v>1527</v>
       </c>
       <c r="B244" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="C244" t="s">
         <v>2087</v>
       </c>
       <c r="D244" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15">
@@ -64312,13 +64413,13 @@
         <v>1599</v>
       </c>
       <c r="B248" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="C248" t="s">
         <v>2111</v>
       </c>
       <c r="D248" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15">
@@ -64326,13 +64427,13 @@
         <v>1601</v>
       </c>
       <c r="B249" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C249" t="s">
         <v>2113</v>
       </c>
       <c r="D249" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15">
@@ -64382,13 +64483,13 @@
         <v>1628</v>
       </c>
       <c r="B253" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
       <c r="C253" t="s">
         <v>2121</v>
       </c>
       <c r="D253" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15">
@@ -64424,13 +64525,13 @@
         <v>1645</v>
       </c>
       <c r="B256" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C256" t="s">
         <v>2125</v>
       </c>
       <c r="D256" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15">
@@ -64438,13 +64539,13 @@
         <v>1647</v>
       </c>
       <c r="B257" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="C257" t="s">
         <v>2126</v>
       </c>
       <c r="D257" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15">
@@ -64452,13 +64553,13 @@
         <v>1652</v>
       </c>
       <c r="B258" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="C258" t="s">
         <v>2127</v>
       </c>
       <c r="D258" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15">
@@ -64466,13 +64567,13 @@
         <v>1655</v>
       </c>
       <c r="B259" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="C259" t="s">
         <v>2128</v>
       </c>
       <c r="D259" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15">
@@ -64536,13 +64637,13 @@
         <v>1681</v>
       </c>
       <c r="B264" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="C264" t="s">
         <v>2136</v>
       </c>
       <c r="D264" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15"/>
